--- a/Racecard_20250413_1.xlsx
+++ b/Racecard_20250413_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="151">
   <si>
     <t>日期</t>
   </si>
@@ -113,12 +113,381 @@
   </si>
   <si>
     <t>進口類別</t>
+  </si>
+  <si>
+    <t>上次總場次</t>
+  </si>
+  <si>
+    <t>上次日期</t>
+  </si>
+  <si>
+    <t>上次班次</t>
+  </si>
+  <si>
+    <t>上次路程</t>
+  </si>
+  <si>
+    <t>上次名次</t>
+  </si>
+  <si>
+    <t>上次騎師</t>
+  </si>
+  <si>
+    <t>上次賠率</t>
+  </si>
+  <si>
+    <t>上次負磅</t>
+  </si>
+  <si>
+    <t>上次負磅 +/-</t>
+  </si>
+  <si>
+    <t>上次檔位</t>
+  </si>
+  <si>
+    <t>上次檔位 +/-</t>
+  </si>
+  <si>
+    <t>上次賽事時間1</t>
+  </si>
+  <si>
+    <t>上次賽事時間2</t>
+  </si>
+  <si>
+    <t>上次賽事時間3</t>
+  </si>
+  <si>
+    <t>上次賽事時間4</t>
+  </si>
+  <si>
+    <t>上次賽事時間5</t>
+  </si>
+  <si>
+    <t>上次賽事時間6</t>
+  </si>
+  <si>
+    <t>上次完成時間</t>
+  </si>
+  <si>
+    <t>上次第 1 段</t>
+  </si>
+  <si>
+    <t>上次第 2 段</t>
+  </si>
+  <si>
+    <t>上次第 3 段</t>
+  </si>
+  <si>
+    <t>上次第 4 段</t>
+  </si>
+  <si>
+    <t>上次第 5 段</t>
+  </si>
+  <si>
+    <t>上次第 6 段</t>
+  </si>
+  <si>
+    <t>上次最後 800</t>
+  </si>
+  <si>
+    <t>上次調整基數</t>
+  </si>
+  <si>
+    <t>上次調整後最後 800</t>
+  </si>
+  <si>
+    <t>上次調整後完成時間</t>
+  </si>
+  <si>
+    <t>前次總場次</t>
+  </si>
+  <si>
+    <t>前次日期</t>
+  </si>
+  <si>
+    <t>前次班次</t>
+  </si>
+  <si>
+    <t>前次路程</t>
+  </si>
+  <si>
+    <t>前次名次</t>
+  </si>
+  <si>
+    <t>前次騎師</t>
+  </si>
+  <si>
+    <t>前次賠率</t>
+  </si>
+  <si>
+    <t>前次負磅</t>
+  </si>
+  <si>
+    <t>前次負磅 +/-</t>
+  </si>
+  <si>
+    <t>前次檔位</t>
+  </si>
+  <si>
+    <t>前次檔位 +/-</t>
+  </si>
+  <si>
+    <t>前次賽事時間1</t>
+  </si>
+  <si>
+    <t>前次賽事時間2</t>
+  </si>
+  <si>
+    <t>前次賽事時間3</t>
+  </si>
+  <si>
+    <t>前次賽事時間4</t>
+  </si>
+  <si>
+    <t>前次賽事時間5</t>
+  </si>
+  <si>
+    <t>前次賽事時間6</t>
+  </si>
+  <si>
+    <t>前次完成時間</t>
+  </si>
+  <si>
+    <t>前次第 1 段</t>
+  </si>
+  <si>
+    <t>前次第 2 段</t>
+  </si>
+  <si>
+    <t>前次第 3 段</t>
+  </si>
+  <si>
+    <t>前次第 4 段</t>
+  </si>
+  <si>
+    <t>前次第 5 段</t>
+  </si>
+  <si>
+    <t>前次第 6 段</t>
+  </si>
+  <si>
+    <t>前次最後 800</t>
+  </si>
+  <si>
+    <t>前次調整基數</t>
+  </si>
+  <si>
+    <t>前次調整後最後 800</t>
+  </si>
+  <si>
+    <t>前次調整後完成時間</t>
+  </si>
+  <si>
+    <t>馬名2</t>
+  </si>
+  <si>
+    <t>上次調整後完成時間2</t>
+  </si>
+  <si>
+    <t>上次賽事</t>
+  </si>
+  <si>
+    <t>前次調整後完成時間2</t>
+  </si>
+  <si>
+    <t>前次賽事</t>
+  </si>
+  <si>
+    <t>2次調整後平均時間</t>
+  </si>
+  <si>
+    <t>上次調整後完成秒速</t>
+  </si>
+  <si>
+    <t>前次調整後完成秒速</t>
+  </si>
+  <si>
+    <t>2次調整後平均秒速</t>
+  </si>
+  <si>
+    <t>2次較快完成秒速</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>草地</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "C" 賽道</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>馬達</t>
+  </si>
+  <si>
+    <t>不勞而獲</t>
+  </si>
+  <si>
+    <t>神燦金剛</t>
+  </si>
+  <si>
+    <t>快活精神</t>
+  </si>
+  <si>
+    <t>星將</t>
+  </si>
+  <si>
+    <t>渾身解數</t>
+  </si>
+  <si>
+    <t>K165</t>
+  </si>
+  <si>
+    <t>K377</t>
+  </si>
+  <si>
+    <t>K259</t>
+  </si>
+  <si>
+    <t>K326</t>
+  </si>
+  <si>
+    <t>K331</t>
+  </si>
+  <si>
+    <t>K291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+梁家俊
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+周俊樂 (-2)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+潘明輝
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+田泰安
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+霍宏聲
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+潘頓
+</t>
+  </si>
+  <si>
+    <t>巫偉傑</t>
+  </si>
+  <si>
+    <t>葉楚航</t>
+  </si>
+  <si>
+    <t>鄭俊偉</t>
+  </si>
+  <si>
+    <t>游達榮</t>
+  </si>
+  <si>
+    <t>黎昭昇</t>
+  </si>
+  <si>
+    <t>閹</t>
+  </si>
+  <si>
+    <t>雄</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TT1</t>
+  </si>
+  <si>
+    <t>莫炫標</t>
+  </si>
+  <si>
+    <t>李耀強</t>
+  </si>
+  <si>
+    <t>許晋奎</t>
+  </si>
+  <si>
+    <t>區嘉文</t>
+  </si>
+  <si>
+    <t>陳綺蓮</t>
+  </si>
+  <si>
+    <t>陳汝安</t>
+  </si>
+  <si>
+    <t>Fastnet Rock</t>
+  </si>
+  <si>
+    <t>Land Force</t>
+  </si>
+  <si>
+    <t>Oasis Dream</t>
+  </si>
+  <si>
+    <t>Pierata</t>
+  </si>
+  <si>
+    <t>Star Turn</t>
+  </si>
+  <si>
+    <t>Brutal</t>
+  </si>
+  <si>
+    <t>Orangey Red</t>
+  </si>
+  <si>
+    <t>Phantom Spirit</t>
+  </si>
+  <si>
+    <t>Eastern Destiny</t>
+  </si>
+  <si>
+    <t>Dream Free</t>
+  </si>
+  <si>
+    <t>Hyannis Port</t>
+  </si>
+  <si>
+    <t>Sistabeel</t>
+  </si>
+  <si>
+    <t>PPG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,11 +540,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,13 +840,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:CU7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:99">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,6 +945,693 @@
       </c>
       <c r="AG1" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:99">
+      <c r="A2" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2">
+        <v>126</v>
+      </c>
+      <c r="M2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>150</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:99">
+      <c r="A3" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3">
+        <v>126</v>
+      </c>
+      <c r="M3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>150</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:99">
+      <c r="A4" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4">
+        <v>126</v>
+      </c>
+      <c r="M4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U4" t="s">
+        <v>102</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>150</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:99">
+      <c r="A5" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5">
+        <v>121</v>
+      </c>
+      <c r="M5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>123</v>
+      </c>
+      <c r="S5" t="s">
+        <v>102</v>
+      </c>
+      <c r="U5" t="s">
+        <v>102</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>150</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:99">
+      <c r="A6" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6">
+        <v>121</v>
+      </c>
+      <c r="M6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>124</v>
+      </c>
+      <c r="S6" t="s">
+        <v>102</v>
+      </c>
+      <c r="U6" t="s">
+        <v>102</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>150</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:99">
+      <c r="A7" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7">
+        <v>121</v>
+      </c>
+      <c r="M7" t="s">
+        <v>120</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7" t="s">
+        <v>125</v>
+      </c>
+      <c r="S7" t="s">
+        <v>102</v>
+      </c>
+      <c r="U7" t="s">
+        <v>102</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>150</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
